--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,16 +195,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,100 +880,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,100 +982,100 @@
             <c:numRef>
               <c:f>Foglio2!$K$6:$K$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>170859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105413504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62748517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35831808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19487171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4782969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>823543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2187</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3435.9738368000026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5252.3350144000033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7836.4164096000086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11441.558259200014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384.000000000025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23053.933324800037</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31927.78096640006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43581.765721600103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58706.834227200146</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>78125.000000000189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>102807.17025280026</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>133892.52099840034</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>172709.48495360048</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220798.41675520068</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>279936.00000000076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>352161.46062080108</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>439804.65111040138</c:v>
+                  <c:v>-128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>545516.07010560192</c:v>
+                  <c:v>-2187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>672298.88184320228</c:v>
+                  <c:v>-16384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>823543.00000000291</c:v>
+                  <c:v>-78125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1003061.3004288035</c:v>
+                  <c:v>-279936</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1215128.0273024042</c:v>
+                  <c:v>-823543</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1464519.4571776055</c:v>
+                  <c:v>-2097152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1756556.8854912068</c:v>
+                  <c:v>-4782969</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2097152.0000000065</c:v>
+                  <c:v>-10000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2492854.7056768066</c:v>
+                  <c:v>-19487171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2950903.4655744047</c:v>
+                  <c:v>-35831808</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3479278.2221696037</c:v>
+                  <c:v>-62748517</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4086755.9636992025</c:v>
+                  <c:v>-105413504</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4782969</c:v>
+                  <c:v>-170859375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1114,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1153,7 +1176,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1346,100 +1369,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,100 +1471,100 @@
             <c:numRef>
               <c:f>Foglio2!$L$6:$L$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>3.872983346207417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7416573867739413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6055512754639891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4641016151377544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3166247903553998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1622776601683795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6457513110645907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4494897427831779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2360679774997898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.7320508075688772</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7888543819998317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8439088914585775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8973665961010278</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9493588689617929</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0493901531919199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0976176963403033</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1447610589527222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1908902300206647</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2360679774997902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2803508501982765</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3237900077244507</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3664319132398468</c:v>
+                  <c:v>1.4142135623730951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4083189157584597</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4494897427831788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4899799195977472</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.529822128134704</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5690465157330262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6076809620810599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6457513110645912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6832815729997481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7202941017470894</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.7568097504180451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.792848008753789</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8284271247461907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8635642126552709</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8982753492378879</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9325756597230361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9664793948382653</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,7 +1603,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1642,7 +1665,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1835,100 +1858,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,100 +1960,100 @@
             <c:numRef>
               <c:f>Foglio2!$M$6:$M$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>3269017.3724721107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1202604.2841647768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>442413.39200892049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162754.79141900392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59874.141715197817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22026.465794806718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8103.0839275753842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980.9579870417283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1096.6331584284585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>403.42879349273511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.4131591025766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.598150033144236</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>20.085536923187668</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.532530197109352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.964100047397025</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.59823444367801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.701184493300858</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.598150033144286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.686331040925211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81.450868664968212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.484315641933946</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121.51041751873508</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>148.41315910257686</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>181.27224187515154</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>221.40641620418756</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>270.42640742615328</c:v>
+                  <c:v>7.3890560989306504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>330.29955990964947</c:v>
+                  <c:v>2.7182818284590451</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>403.42879349273619</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>492.74904109325763</c:v>
+                  <c:v>0.36787944117144233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>601.84503787208382</c:v>
+                  <c:v>0.1353352832366127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>735.09518924197528</c:v>
+                  <c:v>4.9787068367863944E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>897.84729165042074</c:v>
+                  <c:v>1.8315638888734179E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1096.6331584284626</c:v>
+                  <c:v>6.737946999085467E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1339.4307643944228</c:v>
+                  <c:v>2.4787521766663585E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1635.9844299959329</c:v>
+                  <c:v>9.1188196555451624E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1998.1958951041261</c:v>
+                  <c:v>3.3546262790251185E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2440.6019776245093</c:v>
+                  <c:v>1.2340980408667956E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2980.9579870417388</c:v>
+                  <c:v>4.5399929762484854E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3640.9503073323649</c:v>
+                  <c:v>1.6701700790245659E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4447.0667476998651</c:v>
+                  <c:v>6.1442123533282098E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5431.6595913629881</c:v>
+                  <c:v>2.2603294069810542E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6634.2440062778896</c:v>
+                  <c:v>8.3152871910356788E-7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8103.0839275753842</c:v>
+                  <c:v>3.0590232050182579E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2092,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2131,7 +2154,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2324,100 +2347,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,100 +2449,100 @@
             <c:numRef>
               <c:f>Foglio2!$N$6:$N$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>2.7080502011022101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.0986122886681098</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1631508098056809</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2237754316221159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2809338454620645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3350010667323402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3862943611198908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.435084525289323</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4816045409242158</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5260563034950496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5686159179138455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6094379124341007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6486586255873821</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6863989535702291</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.722766597741104</c:v>
+                  <c:v>0.69314718055994529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7578579175523741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7917594692280554</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8245492920510464</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8562979903656267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8870696490323804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9169226121820615</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9459101490553139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9740810260220101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0014800002101247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.028148247292286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0541237336955467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0794415416798362</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1041341542702079</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1282317058492684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1517622032594623</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.174751721484161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1972245773362196</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,7 +2581,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2620,7 +2643,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2818,100 +2841,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,100 +2943,100 @@
             <c:numRef>
               <c:f>Foglio2!$O$6:$O$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.189586839976279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.556063286183157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.125732532083189</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.928809012737991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.379173679952576</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.112126572366325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.251465064166389</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.857618025475997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.758347359905173</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.224253144732671</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.502930128332807</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.715236050952022</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.000000000000085</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.516694719810346</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84.448506289465428</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.005860256665713</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.43047210190416</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128.00000000000031</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147.03338943962083</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>168.89701257893088</c:v>
+                  <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194.01172051333143</c:v>
+                  <c:v>3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>222.86094420380832</c:v>
+                  <c:v>1.953125E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>256.00000000000063</c:v>
+                  <c:v>9.765625E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294.06677887924144</c:v>
+                  <c:v>4.8828125E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>337.79402515786148</c:v>
+                  <c:v>2.44140625E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>388.02344102666223</c:v>
+                  <c:v>1.220703125E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>445.72188840761549</c:v>
+                  <c:v>6.103515625E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>512</c:v>
+                  <c:v>3.0517578125E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,7 +3075,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3114,7 +3137,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3312,100 +3335,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,100 +3437,100 @@
             <c:numRef>
               <c:f>Foglio2!$P$6:$P$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>3.0517578125E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.103515625E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.220703125E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8828125E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10881882041201553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4732285406899847E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.246924442330586E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1793647187314666E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2499999999999979E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4409410206007716E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7366142703449902E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1234622211652909E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5896823593657312E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1249999999999958E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7204705103003844E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3683071351724937E-2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0617311105826444E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7948411796828646E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5624999999999977E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.360235255150192E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1841535675862457E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0308655552913212E-2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9742058984143142E-3</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8124999999999809E-3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8011762757509532E-3</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9207678379312283E-3</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1543277764566058E-3</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4871029492071571E-3</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9062499999999905E-3</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4005881378754797E-3</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9603839189656163E-3</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5771638882283072E-3</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2435514746035842E-3</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.953125E-3</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,7 +3569,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3608,7 +3631,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3801,100 +3824,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,100 +3926,100 @@
             <c:numRef>
               <c:f>Foglio2!$E$6:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.200000000000006</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.800000000000008</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.400000000000006</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.000000000000007</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.600000000000009</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.20000000000001</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.800000000000011</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.400000000000009</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.000000000000011</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.600000000000012</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.20000000000001</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.800000000000011</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.400000000000013</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.000000000000011</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.600000000000009</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.200000000000006</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.800000000000004</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.400000000000002</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,100 +4057,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,100 +4159,100 @@
             <c:numRef>
               <c:f>Foglio2!$E$6:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.200000000000006</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.800000000000008</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.400000000000006</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.000000000000007</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.600000000000009</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.20000000000001</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.800000000000011</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.400000000000009</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.000000000000011</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.600000000000012</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.20000000000001</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.800000000000011</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.400000000000013</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.000000000000011</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.600000000000009</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.200000000000006</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.800000000000004</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.400000000000002</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,100 +4290,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,100 +4392,100 @@
             <c:numRef>
               <c:f>Foglio2!$E$6:$E$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.200000000000006</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.800000000000008</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.400000000000006</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.000000000000007</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.600000000000009</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.20000000000001</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.800000000000011</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.400000000000009</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.000000000000011</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.600000000000012</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.20000000000001</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.800000000000011</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.400000000000013</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.000000000000011</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.600000000000009</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.200000000000006</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.800000000000004</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.400000000000002</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4501,7 +4524,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4563,7 +4586,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4756,100 +4779,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,100 +4881,100 @@
             <c:numRef>
               <c:f>Foglio2!$C$6:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +5013,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5052,7 +5075,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5245,100 +5268,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,100 +5370,100 @@
             <c:numRef>
               <c:f>Foglio2!$D$6:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.6000000000000023</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.8000000000000025</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.2000000000000028</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.400000000000003</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.6000000000000032</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.8000000000000034</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.0000000000000036</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.2000000000000037</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.4000000000000039</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.6000000000000041</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.8000000000000043</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.0000000000000036</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8.2000000000000028</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.4000000000000021</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.6000000000000014</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.8000000000000007</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5479,7 +5502,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5541,7 +5564,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5734,100 +5757,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,100 +5859,100 @@
             <c:numRef>
               <c:f>Foglio2!$F$6:$F$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.960000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.440000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.640000000000008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.160000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.040000000000017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.160000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.360000000000024</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.640000000000029</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.000000000000028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.440000000000033</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.960000000000036</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.560000000000045</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.240000000000045</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.00000000000005</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.840000000000053</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.760000000000055</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57.760000000000062</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60.840000000000067</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.000000000000057</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.240000000000052</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.560000000000031</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73.960000000000022</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77.440000000000012</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,7 +5991,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6030,7 +6053,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6223,100 +6246,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6325,100 +6348,100 @@
             <c:numRef>
               <c:f>Foglio2!$G$6:$G$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.768000000000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.304000000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.65600000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54.872000000000028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.088000000000051</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.184000000000069</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97.336000000000098</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.59200000000011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125.00000000000013</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140.60800000000015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>157.46400000000017</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>175.61600000000021</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195.11200000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216.00000000000026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>238.32800000000032</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>262.14400000000035</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287.49600000000044</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>314.43200000000047</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>343.00000000000051</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>373.24800000000056</c:v>
+                  <c:v>-216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>405.22400000000061</c:v>
+                  <c:v>-343</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>438.97600000000068</c:v>
+                  <c:v>-512</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>474.55200000000076</c:v>
+                  <c:v>-729</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>512.00000000000068</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>551.36800000000062</c:v>
+                  <c:v>-1331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>592.70400000000041</c:v>
+                  <c:v>-1728</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>636.05600000000027</c:v>
+                  <c:v>-2197</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>681.47200000000021</c:v>
+                  <c:v>-2744</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>729</c:v>
+                  <c:v>-3375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6457,7 +6480,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6519,7 +6542,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6712,100 +6735,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6814,100 +6837,100 @@
             <c:numRef>
               <c:f>Foglio2!$H$6:$H$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>50625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.85760000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>133.63360000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>167.96160000000012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>208.51360000000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256.00000000000023</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>311.16960000000029</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>374.80960000000039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>447.74560000000059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>530.84160000000077</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>625.00000000000091</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>731.16160000000116</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>850.30560000000128</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>983.44960000000151</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1131.649600000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1296.000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1477.6336000000026</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1677.721600000003</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1897.4736000000039</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2138.1376000000041</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2401.000000000005</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2687.3856000000055</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2998.6576000000059</c:v>
+                  <c:v>2401</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3336.2176000000072</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3701.5056000000081</c:v>
+                  <c:v>6561</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4096.0000000000073</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4521.2176000000072</c:v>
+                  <c:v>14641</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4978.7136000000046</c:v>
+                  <c:v>20736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5470.0816000000032</c:v>
+                  <c:v>28561</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5996.9536000000016</c:v>
+                  <c:v>38416</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6561</c:v>
+                  <c:v>50625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6946,7 +6969,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7008,7 +7031,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7201,100 +7224,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7303,100 +7326,100 @@
             <c:numRef>
               <c:f>Foglio2!$I$6:$I$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>759375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>537824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>335.5443200000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>454.35424000000023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>604.66176000000053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>792.35168000000067</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024.0000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1306.9123200000015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1649.1622400000022</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2059.6297600000034</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2548.0396800000044</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3125.0000000000055</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3802.0403200000073</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4591.650240000009</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5507.3177600000108</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6563.5676800000147</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7776.0000000000155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9161.3283200000205</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10737.418240000025</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12523.325760000032</c:v>
+                  <c:v>-243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14539.335680000035</c:v>
+                  <c:v>-1024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16807.000000000044</c:v>
+                  <c:v>-3125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19349.17632000005</c:v>
+                  <c:v>-7776</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22190.066240000055</c:v>
+                  <c:v>-16807</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25355.253760000069</c:v>
+                  <c:v>-32768</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28871.74368000008</c:v>
+                  <c:v>-59049</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32768.000000000073</c:v>
+                  <c:v>-100000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37073.984320000069</c:v>
+                  <c:v>-161051</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41821.194240000048</c:v>
+                  <c:v>-248832</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47042.701760000033</c:v>
+                  <c:v>-371293</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52773.191680000018</c:v>
+                  <c:v>-537824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59049</c:v>
+                  <c:v>-759375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7435,7 +7458,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7497,7 +7520,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7690,100 +7713,100 @@
             <c:numRef>
               <c:f>Foglio2!$B$6:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000027</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.400000000000003</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6000000000000032</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8000000000000034</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0000000000000036</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2000000000000037</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.4000000000000039</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6000000000000041</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8000000000000043</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0000000000000036</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7792,100 +7815,100 @@
             <c:numRef>
               <c:f>Foglio2!$J$6:$J$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>11390625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7529536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4826809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2985984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1771561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>531441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46656</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>729</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1073.7418240000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1544.8044160000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2176.7823360000025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3010.9363840000028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0000000000055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5489.0317440000072</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7256.3138560000116</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9474.2968960000198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12230.590464000026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625.000000000035</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19770.609664000047</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24794.911296000057</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>30840.97945600007</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38068.6925440001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46656.000000000109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56800.235584000147</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68719.476736000186</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82653.95001600025</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98867.482624000288</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>117649.00000000036</c:v>
+                  <c:v>15625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>139314.06950400042</c:v>
+                  <c:v>46656</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>164206.49017600049</c:v>
+                  <c:v>117649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192699.92857600062</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>225199.60070400074</c:v>
+                  <c:v>531441</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>262144.0000000007</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>304006.6714240007</c:v>
+                  <c:v>1771561</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>351298.03161600046</c:v>
+                  <c:v>2985984</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>404567.23513600038</c:v>
+                  <c:v>4826809</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>464404.08678400022</c:v>
+                  <c:v>7529536</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>531441</c:v>
+                  <c:v>11390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7924,7 +7947,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7986,7 +8009,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17175,110 +17198,110 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>50</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f>D3/$D$7</f>
         <v>0.5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f>E3</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E6" si="0">D4/$D$7</f>
         <v>0.3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f>F3+E4</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F6" si="1">F4+E5</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f>SUM(D3:D6)</f>
         <v>100</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f>SUM(E3:E6)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17291,17 +17314,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W110" sqref="W110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -17309,7 +17337,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -17317,1990 +17345,1990 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="O3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O4">
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="6">
         <f>C2</f>
-        <v>3</v>
-      </c>
-      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
         <f>B6</f>
-        <v>3</v>
-      </c>
-      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
         <f>-C6</f>
-        <v>-3</v>
-      </c>
-      <c r="E6">
+        <v>-15</v>
+      </c>
+      <c r="E6" s="6">
         <f>3*B6+2</f>
-        <v>11</v>
-      </c>
-      <c r="F6">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6">
         <f>B6^2</f>
-        <v>9</v>
-      </c>
-      <c r="G6">
+        <v>225</v>
+      </c>
+      <c r="G6" s="6">
         <f>B6^3</f>
-        <v>27</v>
-      </c>
-      <c r="H6">
+        <v>3375</v>
+      </c>
+      <c r="H6" s="6">
         <f>B6^4</f>
-        <v>81</v>
-      </c>
-      <c r="I6">
+        <v>50625</v>
+      </c>
+      <c r="I6" s="6">
         <f>B6^5</f>
-        <v>243</v>
-      </c>
-      <c r="J6">
+        <v>759375</v>
+      </c>
+      <c r="J6" s="6">
         <f>B6^6</f>
-        <v>729</v>
-      </c>
-      <c r="K6">
+        <v>11390625</v>
+      </c>
+      <c r="K6" s="6">
         <f>B6^7</f>
-        <v>2187</v>
-      </c>
-      <c r="L6">
+        <v>170859375</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" ref="L6:L36" si="0">SQRT(B6)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="M6">
+        <v>3.872983346207417</v>
+      </c>
+      <c r="M6" s="6">
         <f>EXP(B6)</f>
-        <v>20.085536923187668</v>
-      </c>
-      <c r="N6">
+        <v>3269017.3724721107</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" ref="N6:N36" si="1">LN(B6)</f>
-        <v>1.0986122886681098</v>
-      </c>
-      <c r="O6">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="O6" s="6">
         <f t="shared" ref="O6:O36" si="2">$O$4^B6</f>
-        <v>8</v>
-      </c>
-      <c r="P6">
+        <v>32768</v>
+      </c>
+      <c r="P6" s="6">
         <f>$P$4^B6</f>
-        <v>0.125</v>
+        <v>3.0517578125E-5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="6">
         <f>B6+$C$3</f>
-        <v>3.2</v>
-      </c>
-      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
         <f t="shared" ref="C7:C36" si="3">B7</f>
-        <v>3.2</v>
-      </c>
-      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" ref="D7:D36" si="4">-C7</f>
-        <v>-3.2</v>
-      </c>
-      <c r="E7">
+        <v>-14</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" ref="E7:E36" si="5">3*B7+2</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" ref="F7:F36" si="6">B7^2</f>
-        <v>10.240000000000002</v>
-      </c>
-      <c r="G7">
+        <v>196</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" ref="G7:G36" si="7">B7^3</f>
-        <v>32.768000000000008</v>
-      </c>
-      <c r="H7">
+        <v>2744</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" ref="H7:H36" si="8">B7^4</f>
-        <v>104.85760000000005</v>
-      </c>
-      <c r="I7">
+        <v>38416</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I36" si="9">B7^5</f>
-        <v>335.5443200000002</v>
-      </c>
-      <c r="J7">
+        <v>537824</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" ref="J7:J36" si="10">B7^6</f>
-        <v>1073.7418240000006</v>
-      </c>
-      <c r="K7">
+        <v>7529536</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" ref="K7:K36" si="11">B7^7</f>
-        <v>3435.9738368000026</v>
-      </c>
-      <c r="L7">
+        <v>105413504</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" si="0"/>
-        <v>1.7888543819998317</v>
-      </c>
-      <c r="M7">
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" ref="M7:M36" si="12">EXP(B7)</f>
-        <v>24.532530197109352</v>
-      </c>
-      <c r="N7">
+        <v>1202604.2841647768</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>1.1631508098056809</v>
-      </c>
-      <c r="O7">
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>9.189586839976279</v>
-      </c>
-      <c r="P7">
+        <v>16384</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" ref="P7:P36" si="13">$P$4^B7</f>
-        <v>0.10881882041201553</v>
+        <v>6.103515625E-5</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="6">
         <f t="shared" ref="B8:B36" si="14">B7+$C$3</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
         <f t="shared" si="3"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="4"/>
-        <v>-3.4000000000000004</v>
-      </c>
-      <c r="E8">
+        <v>-13</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="5"/>
-        <v>12.200000000000001</v>
-      </c>
-      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>11.560000000000002</v>
-      </c>
-      <c r="G8">
+        <v>169</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="7"/>
-        <v>39.304000000000009</v>
-      </c>
-      <c r="H8">
+        <v>2197</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="8"/>
-        <v>133.63360000000006</v>
-      </c>
-      <c r="I8">
+        <v>28561</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="9"/>
-        <v>454.35424000000023</v>
-      </c>
-      <c r="J8">
+        <v>371293</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="10"/>
-        <v>1544.8044160000011</v>
-      </c>
-      <c r="K8">
+        <v>4826809</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="11"/>
-        <v>5252.3350144000033</v>
-      </c>
-      <c r="L8">
+        <v>62748517</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>1.8439088914585775</v>
-      </c>
-      <c r="M8">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="M8" s="6">
         <f t="shared" si="12"/>
-        <v>29.964100047397025</v>
-      </c>
-      <c r="N8">
+        <v>442413.39200892049</v>
+      </c>
+      <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>1.2237754316221159</v>
-      </c>
-      <c r="O8">
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="O8" s="6">
         <f t="shared" si="2"/>
-        <v>10.556063286183157</v>
-      </c>
-      <c r="P8">
+        <v>8192</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="13"/>
-        <v>9.4732285406899847E-2</v>
+        <v>1.220703125E-4</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="6">
         <f t="shared" si="14"/>
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
         <f t="shared" si="3"/>
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="4"/>
-        <v>-3.6000000000000005</v>
-      </c>
-      <c r="E9">
+        <v>-12</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="5"/>
-        <v>12.8</v>
-      </c>
-      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>12.960000000000004</v>
-      </c>
-      <c r="G9">
+        <v>144</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
-        <v>46.65600000000002</v>
-      </c>
-      <c r="H9">
+        <v>1728</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="8"/>
-        <v>167.96160000000012</v>
-      </c>
-      <c r="I9">
+        <v>20736</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="9"/>
-        <v>604.66176000000053</v>
-      </c>
-      <c r="J9">
+        <v>248832</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="10"/>
-        <v>2176.7823360000025</v>
-      </c>
-      <c r="K9">
+        <v>2985984</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="11"/>
-        <v>7836.4164096000086</v>
-      </c>
-      <c r="L9">
+        <v>35831808</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
-        <v>1.8973665961010278</v>
-      </c>
-      <c r="M9">
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="12"/>
-        <v>36.59823444367801</v>
-      </c>
-      <c r="N9">
+        <v>162754.79141900392</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>1.2809338454620645</v>
-      </c>
-      <c r="O9">
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>12.125732532083189</v>
-      </c>
-      <c r="P9">
+        <v>4096</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="13"/>
-        <v>8.246924442330586E-2</v>
+        <v>2.44140625E-4</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="6">
         <f t="shared" si="14"/>
-        <v>3.8000000000000007</v>
-      </c>
-      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
         <f t="shared" si="3"/>
-        <v>3.8000000000000007</v>
-      </c>
-      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="4"/>
-        <v>-3.8000000000000007</v>
-      </c>
-      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="5"/>
-        <v>13.400000000000002</v>
-      </c>
-      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>14.440000000000005</v>
-      </c>
-      <c r="G10">
+        <v>121</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="7"/>
-        <v>54.872000000000028</v>
-      </c>
-      <c r="H10">
+        <v>1331</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="8"/>
-        <v>208.51360000000014</v>
-      </c>
-      <c r="I10">
+        <v>14641</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="9"/>
-        <v>792.35168000000067</v>
-      </c>
-      <c r="J10">
+        <v>161051</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="10"/>
-        <v>3010.9363840000028</v>
-      </c>
-      <c r="K10">
+        <v>1771561</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="11"/>
-        <v>11441.558259200014</v>
-      </c>
-      <c r="L10">
+        <v>19487171</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="0"/>
-        <v>1.9493588689617929</v>
-      </c>
-      <c r="M10">
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="12"/>
-        <v>44.701184493300858</v>
-      </c>
-      <c r="N10">
+        <v>59874.141715197817</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>1.3350010667323402</v>
-      </c>
-      <c r="O10">
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="O10" s="6">
         <f t="shared" si="2"/>
-        <v>13.928809012737991</v>
-      </c>
-      <c r="P10">
+        <v>2048</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="13"/>
-        <v>7.1793647187314666E-2</v>
+        <v>4.8828125E-4</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="6">
         <f t="shared" si="14"/>
-        <v>4.0000000000000009</v>
-      </c>
-      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
         <f t="shared" si="3"/>
-        <v>4.0000000000000009</v>
-      </c>
-      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="4"/>
-        <v>-4.0000000000000009</v>
-      </c>
-      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="5"/>
-        <v>14.000000000000004</v>
-      </c>
-      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>16.000000000000007</v>
-      </c>
-      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="7"/>
-        <v>64.000000000000043</v>
-      </c>
-      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="8"/>
-        <v>256.00000000000023</v>
-      </c>
-      <c r="I11">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="9"/>
-        <v>1024.0000000000011</v>
-      </c>
-      <c r="J11">
+        <v>100000</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="10"/>
-        <v>4096.0000000000055</v>
-      </c>
-      <c r="K11">
+        <v>1000000</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="11"/>
-        <v>16384.000000000025</v>
-      </c>
-      <c r="L11">
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="12"/>
+        <v>22026.465794806718</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="13"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="7"/>
+        <v>729</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="8"/>
+        <v>6561</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="9"/>
+        <v>59049</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="10"/>
+        <v>531441</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="11"/>
+        <v>4782969</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="12"/>
+        <v>8103.0839275753842</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="13"/>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="9"/>
+        <v>32768</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="10"/>
+        <v>262144</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="11"/>
+        <v>2097152</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="12"/>
+        <v>2980.9579870417283</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="13"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="7"/>
+        <v>343</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="8"/>
+        <v>2401</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="9"/>
+        <v>16807</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="10"/>
+        <v>117649</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="11"/>
+        <v>823543</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="12"/>
+        <v>1096.6331584284585</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="13"/>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="8"/>
+        <v>1296</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="9"/>
+        <v>7776</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="10"/>
+        <v>46656</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="11"/>
+        <v>279936</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="12"/>
+        <v>403.42879349273511</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="9"/>
+        <v>3125</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="10"/>
+        <v>15625</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="11"/>
+        <v>78125</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="12"/>
+        <v>148.4131591025766</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="9"/>
+        <v>1024</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="10"/>
+        <v>4096</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="11"/>
+        <v>16384</v>
+      </c>
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="M17" s="6">
         <f t="shared" si="12"/>
-        <v>54.598150033144286</v>
-      </c>
-      <c r="N11">
+        <v>54.598150033144236</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="1"/>
-        <v>1.3862943611198908</v>
-      </c>
-      <c r="O11">
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="O17" s="6">
         <f t="shared" si="2"/>
-        <v>16.000000000000007</v>
-      </c>
-      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="13"/>
-        <v>6.2499999999999979E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f t="shared" si="14"/>
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>-4.2000000000000011</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
-        <v>14.600000000000003</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
-        <v>17.640000000000008</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="7"/>
-        <v>74.088000000000051</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="8"/>
-        <v>311.16960000000029</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="9"/>
-        <v>1306.9123200000015</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="10"/>
-        <v>5489.0317440000072</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="11"/>
-        <v>23053.933324800037</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>2.0493901531919199</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="12"/>
-        <v>66.686331040925211</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>1.435084525289323</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>18.379173679952576</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="13"/>
-        <v>5.4409410206007716E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f t="shared" si="14"/>
-        <v>4.4000000000000012</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>4.4000000000000012</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
-        <v>-4.4000000000000012</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>15.200000000000003</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
-        <v>19.36000000000001</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="7"/>
-        <v>85.184000000000069</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="8"/>
-        <v>374.80960000000039</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="9"/>
-        <v>1649.1622400000022</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="10"/>
-        <v>7256.3138560000116</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="11"/>
-        <v>31927.78096640006</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>2.0976176963403033</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="12"/>
-        <v>81.450868664968212</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>1.4816045409242158</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>21.112126572366325</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="13"/>
-        <v>4.7366142703449902E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f t="shared" si="14"/>
-        <v>4.6000000000000014</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>4.6000000000000014</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
-        <v>-4.6000000000000014</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>15.800000000000004</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
-        <v>21.160000000000014</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="7"/>
-        <v>97.336000000000098</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="8"/>
-        <v>447.74560000000059</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="9"/>
-        <v>2059.6297600000034</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="10"/>
-        <v>9474.2968960000198</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="11"/>
-        <v>43581.765721600103</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>2.1447610589527222</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="12"/>
-        <v>99.484315641933946</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>1.5260563034950496</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>24.251465064166389</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="13"/>
-        <v>4.1234622211652909E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f t="shared" si="14"/>
-        <v>4.8000000000000016</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>4.8000000000000016</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>-4.8000000000000016</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
-        <v>23.040000000000017</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="7"/>
-        <v>110.59200000000011</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="8"/>
-        <v>530.84160000000077</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="9"/>
-        <v>2548.0396800000044</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="10"/>
-        <v>12230.590464000026</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="11"/>
-        <v>58706.834227200146</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>2.1908902300206647</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="12"/>
-        <v>121.51041751873508</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>1.5686159179138455</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>27.857618025475997</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="13"/>
-        <v>3.5896823593657312E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f t="shared" si="14"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000018</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="4"/>
-        <v>-5.0000000000000018</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>17.000000000000007</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
-        <v>25.000000000000018</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="7"/>
-        <v>125.00000000000013</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="8"/>
-        <v>625.00000000000091</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="9"/>
-        <v>3125.0000000000055</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="10"/>
-        <v>15625.000000000035</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="11"/>
-        <v>78125.000000000189</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>2.2360679774997902</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="12"/>
-        <v>148.41315910257686</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>1.6094379124341007</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>32.000000000000043</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="13"/>
-        <v>3.1249999999999958E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f t="shared" si="14"/>
-        <v>5.200000000000002</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>5.200000000000002</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
-        <v>-5.200000000000002</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>17.600000000000005</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>27.04000000000002</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="7"/>
-        <v>140.60800000000015</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="8"/>
-        <v>731.16160000000116</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="9"/>
-        <v>3802.0403200000073</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="10"/>
-        <v>19770.609664000047</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="11"/>
-        <v>102807.17025280026</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>2.2803508501982765</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="12"/>
-        <v>181.27224187515154</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>1.6486586255873821</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>36.758347359905173</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="13"/>
-        <v>2.7204705103003844E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="6">
         <f t="shared" si="14"/>
-        <v>5.4000000000000021</v>
-      </c>
-      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="3"/>
-        <v>5.4000000000000021</v>
-      </c>
-      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="4"/>
-        <v>-5.4000000000000021</v>
-      </c>
-      <c r="E18">
+        <v>-3</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="5"/>
-        <v>18.200000000000006</v>
-      </c>
-      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="6"/>
-        <v>29.160000000000021</v>
-      </c>
-      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="7"/>
-        <v>157.46400000000017</v>
-      </c>
-      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="8"/>
-        <v>850.30560000000128</v>
-      </c>
-      <c r="I18">
+        <v>81</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="9"/>
-        <v>4591.650240000009</v>
-      </c>
-      <c r="J18">
+        <v>243</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="10"/>
-        <v>24794.911296000057</v>
-      </c>
-      <c r="K18">
+        <v>729</v>
+      </c>
+      <c r="K18" s="6">
         <f t="shared" si="11"/>
-        <v>133892.52099840034</v>
-      </c>
-      <c r="L18">
+        <v>2187</v>
+      </c>
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
-        <v>2.3237900077244507</v>
-      </c>
-      <c r="M18">
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="M18" s="6">
         <f t="shared" si="12"/>
-        <v>221.40641620418756</v>
-      </c>
-      <c r="N18">
+        <v>20.085536923187668</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="1"/>
-        <v>1.6863989535702291</v>
-      </c>
-      <c r="O18">
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="O18" s="6">
         <f t="shared" si="2"/>
-        <v>42.224253144732671</v>
-      </c>
-      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="13"/>
-        <v>2.3683071351724937E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="6">
         <f t="shared" si="14"/>
-        <v>5.6000000000000023</v>
-      </c>
-      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" si="3"/>
-        <v>5.6000000000000023</v>
-      </c>
-      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
         <f t="shared" si="4"/>
-        <v>-5.6000000000000023</v>
-      </c>
-      <c r="E19">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="5"/>
-        <v>18.800000000000008</v>
-      </c>
-      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="6"/>
-        <v>31.360000000000024</v>
-      </c>
-      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="7"/>
-        <v>175.61600000000021</v>
-      </c>
-      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="8"/>
-        <v>983.44960000000151</v>
-      </c>
-      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="9"/>
-        <v>5507.3177600000108</v>
-      </c>
-      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="10"/>
-        <v>30840.97945600007</v>
-      </c>
-      <c r="K19">
+        <v>64</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="11"/>
-        <v>172709.48495360048</v>
-      </c>
-      <c r="L19">
+        <v>128</v>
+      </c>
+      <c r="L19" s="6">
         <f t="shared" si="0"/>
-        <v>2.3664319132398468</v>
-      </c>
-      <c r="M19">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M19" s="6">
         <f t="shared" si="12"/>
-        <v>270.42640742615328</v>
-      </c>
-      <c r="N19">
+        <v>7.3890560989306504</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
-        <v>1.722766597741104</v>
-      </c>
-      <c r="O19">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="O19" s="6">
         <f t="shared" si="2"/>
-        <v>48.502930128332807</v>
-      </c>
-      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="13"/>
-        <v>2.0617311105826444E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="6">
         <f t="shared" si="14"/>
-        <v>5.8000000000000025</v>
-      </c>
-      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
         <f t="shared" si="3"/>
-        <v>5.8000000000000025</v>
-      </c>
-      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
         <f t="shared" si="4"/>
-        <v>-5.8000000000000025</v>
-      </c>
-      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="5"/>
-        <v>19.400000000000006</v>
-      </c>
-      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="6"/>
-        <v>33.640000000000029</v>
-      </c>
-      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="7"/>
-        <v>195.11200000000025</v>
-      </c>
-      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="8"/>
-        <v>1131.649600000002</v>
-      </c>
-      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="9"/>
-        <v>6563.5676800000147</v>
-      </c>
-      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="10"/>
-        <v>38068.6925440001</v>
-      </c>
-      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="11"/>
-        <v>220798.41675520068</v>
-      </c>
-      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>2.4083189157584597</v>
-      </c>
-      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6">
         <f t="shared" si="12"/>
-        <v>330.29955990964947</v>
-      </c>
-      <c r="N20">
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="1"/>
-        <v>1.7578579175523741</v>
-      </c>
-      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <f t="shared" si="2"/>
-        <v>55.715236050952022</v>
-      </c>
-      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="13"/>
-        <v>1.7948411796828646E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="6">
         <f t="shared" si="14"/>
-        <v>6.0000000000000027</v>
-      </c>
-      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" si="3"/>
-        <v>6.0000000000000027</v>
-      </c>
-      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
         <f t="shared" si="4"/>
-        <v>-6.0000000000000027</v>
-      </c>
-      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="5"/>
-        <v>20.000000000000007</v>
-      </c>
-      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="6"/>
-        <v>36.000000000000028</v>
-      </c>
-      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="7"/>
-        <v>216.00000000000026</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="8"/>
-        <v>1296.000000000002</v>
-      </c>
-      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="9"/>
-        <v>7776.0000000000155</v>
-      </c>
-      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="10"/>
-        <v>46656.000000000109</v>
-      </c>
-      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="11"/>
-        <v>279936.00000000076</v>
-      </c>
-      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="0"/>
-        <v>2.4494897427831788</v>
-      </c>
-      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
         <f t="shared" si="12"/>
-        <v>403.42879349273619</v>
-      </c>
-      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.7917594692280554</v>
-      </c>
-      <c r="O21">
+        <v>#NUM!</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="2"/>
-        <v>64.000000000000085</v>
-      </c>
-      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="13"/>
-        <v>1.5624999999999977E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="6">
         <f>B21+$C$3</f>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="3"/>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>-6.2000000000000028</v>
-      </c>
-      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="5"/>
-        <v>20.600000000000009</v>
-      </c>
-      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="6"/>
-        <v>38.440000000000033</v>
-      </c>
-      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="7"/>
-        <v>238.32800000000032</v>
-      </c>
-      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="8"/>
-        <v>1477.6336000000026</v>
-      </c>
-      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="9"/>
-        <v>9161.3283200000205</v>
-      </c>
-      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="10"/>
-        <v>56800.235584000147</v>
-      </c>
-      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
         <f t="shared" si="11"/>
-        <v>352161.46062080108</v>
-      </c>
-      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.4899799195977472</v>
-      </c>
-      <c r="M22">
+        <v>#NUM!</v>
+      </c>
+      <c r="M22" s="6">
         <f t="shared" si="12"/>
-        <v>492.74904109325763</v>
-      </c>
-      <c r="N22">
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="N22" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.8245492920510464</v>
-      </c>
-      <c r="O22">
+        <v>#NUM!</v>
+      </c>
+      <c r="O22" s="6">
         <f t="shared" si="2"/>
-        <v>73.516694719810346</v>
-      </c>
-      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="P22" s="6">
         <f t="shared" si="13"/>
-        <v>1.360235255150192E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="6">
         <f t="shared" si="14"/>
-        <v>6.400000000000003</v>
-      </c>
-      <c r="C23">
+        <v>-2</v>
+      </c>
+      <c r="C23" s="6">
         <f t="shared" si="3"/>
-        <v>6.400000000000003</v>
-      </c>
-      <c r="D23">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="6">
         <f t="shared" si="4"/>
-        <v>-6.400000000000003</v>
-      </c>
-      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="5"/>
-        <v>21.20000000000001</v>
-      </c>
-      <c r="F23">
+        <v>-4</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="6"/>
-        <v>40.960000000000036</v>
-      </c>
-      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="7"/>
-        <v>262.14400000000035</v>
-      </c>
-      <c r="H23">
+        <v>-8</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" si="8"/>
-        <v>1677.721600000003</v>
-      </c>
-      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="9"/>
-        <v>10737.418240000025</v>
-      </c>
-      <c r="J23">
+        <v>-32</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="10"/>
-        <v>68719.476736000186</v>
-      </c>
-      <c r="K23">
+        <v>64</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="11"/>
-        <v>439804.65111040138</v>
-      </c>
-      <c r="L23">
+        <v>-128</v>
+      </c>
+      <c r="L23" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.529822128134704</v>
-      </c>
-      <c r="M23">
+        <v>#NUM!</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="12"/>
-        <v>601.84503787208382</v>
-      </c>
-      <c r="N23">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="N23" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.8562979903656267</v>
-      </c>
-      <c r="O23">
+        <v>#NUM!</v>
+      </c>
+      <c r="O23" s="6">
         <f t="shared" si="2"/>
-        <v>84.448506289465428</v>
-      </c>
-      <c r="P23">
+        <v>0.25</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="13"/>
-        <v>1.1841535675862457E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="6">
         <f t="shared" si="14"/>
-        <v>6.6000000000000032</v>
-      </c>
-      <c r="C24">
+        <v>-3</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="3"/>
-        <v>6.6000000000000032</v>
-      </c>
-      <c r="D24">
+        <v>-3</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" si="4"/>
-        <v>-6.6000000000000032</v>
-      </c>
-      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="5"/>
-        <v>21.800000000000011</v>
-      </c>
-      <c r="F24">
+        <v>-7</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="6"/>
-        <v>43.560000000000045</v>
-      </c>
-      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="7"/>
-        <v>287.49600000000044</v>
-      </c>
-      <c r="H24">
+        <v>-27</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" si="8"/>
-        <v>1897.4736000000039</v>
-      </c>
-      <c r="I24">
+        <v>81</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="9"/>
-        <v>12523.325760000032</v>
-      </c>
-      <c r="J24">
+        <v>-243</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="10"/>
-        <v>82653.95001600025</v>
-      </c>
-      <c r="K24">
+        <v>729</v>
+      </c>
+      <c r="K24" s="6">
         <f t="shared" si="11"/>
-        <v>545516.07010560192</v>
-      </c>
-      <c r="L24">
+        <v>-2187</v>
+      </c>
+      <c r="L24" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.5690465157330262</v>
-      </c>
-      <c r="M24">
+        <v>#NUM!</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="12"/>
-        <v>735.09518924197528</v>
-      </c>
-      <c r="N24">
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="N24" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.8870696490323804</v>
-      </c>
-      <c r="O24">
+        <v>#NUM!</v>
+      </c>
+      <c r="O24" s="6">
         <f t="shared" si="2"/>
-        <v>97.005860256665713</v>
-      </c>
-      <c r="P24">
+        <v>0.125</v>
+      </c>
+      <c r="P24" s="6">
         <f t="shared" si="13"/>
-        <v>1.0308655552913212E-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="6">
         <f t="shared" si="14"/>
-        <v>6.8000000000000034</v>
-      </c>
-      <c r="C25">
+        <v>-4</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="3"/>
-        <v>6.8000000000000034</v>
-      </c>
-      <c r="D25">
+        <v>-4</v>
+      </c>
+      <c r="D25" s="6">
         <f t="shared" si="4"/>
-        <v>-6.8000000000000034</v>
-      </c>
-      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="5"/>
-        <v>22.400000000000009</v>
-      </c>
-      <c r="F25">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="6"/>
-        <v>46.240000000000045</v>
-      </c>
-      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="7"/>
-        <v>314.43200000000047</v>
-      </c>
-      <c r="H25">
+        <v>-64</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" si="8"/>
-        <v>2138.1376000000041</v>
-      </c>
-      <c r="I25">
+        <v>256</v>
+      </c>
+      <c r="I25" s="6">
         <f t="shared" si="9"/>
-        <v>14539.335680000035</v>
-      </c>
-      <c r="J25">
+        <v>-1024</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="10"/>
-        <v>98867.482624000288</v>
-      </c>
-      <c r="K25">
+        <v>4096</v>
+      </c>
+      <c r="K25" s="6">
         <f t="shared" si="11"/>
-        <v>672298.88184320228</v>
-      </c>
-      <c r="L25">
+        <v>-16384</v>
+      </c>
+      <c r="L25" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.6076809620810599</v>
-      </c>
-      <c r="M25">
+        <v>#NUM!</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="12"/>
-        <v>897.84729165042074</v>
-      </c>
-      <c r="N25">
+        <v>1.8315638888734179E-2</v>
+      </c>
+      <c r="N25" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.9169226121820615</v>
-      </c>
-      <c r="O25">
+        <v>#NUM!</v>
+      </c>
+      <c r="O25" s="6">
         <f t="shared" si="2"/>
-        <v>111.43047210190416</v>
-      </c>
-      <c r="P25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="13"/>
-        <v>8.9742058984143142E-3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="6">
         <f t="shared" si="14"/>
-        <v>7.0000000000000036</v>
-      </c>
-      <c r="C26">
+        <v>-5</v>
+      </c>
+      <c r="C26" s="6">
         <f t="shared" si="3"/>
-        <v>7.0000000000000036</v>
-      </c>
-      <c r="D26">
+        <v>-5</v>
+      </c>
+      <c r="D26" s="6">
         <f t="shared" si="4"/>
-        <v>-7.0000000000000036</v>
-      </c>
-      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="5"/>
-        <v>23.000000000000011</v>
-      </c>
-      <c r="F26">
+        <v>-13</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="6"/>
-        <v>49.00000000000005</v>
-      </c>
-      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="7"/>
-        <v>343.00000000000051</v>
-      </c>
-      <c r="H26">
+        <v>-125</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" si="8"/>
-        <v>2401.000000000005</v>
-      </c>
-      <c r="I26">
+        <v>625</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="9"/>
-        <v>16807.000000000044</v>
-      </c>
-      <c r="J26">
+        <v>-3125</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="10"/>
-        <v>117649.00000000036</v>
-      </c>
-      <c r="K26">
+        <v>15625</v>
+      </c>
+      <c r="K26" s="6">
         <f t="shared" si="11"/>
-        <v>823543.00000000291</v>
-      </c>
-      <c r="L26">
+        <v>-78125</v>
+      </c>
+      <c r="L26" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.6457513110645912</v>
-      </c>
-      <c r="M26">
+        <v>#NUM!</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="12"/>
-        <v>1096.6331584284626</v>
-      </c>
-      <c r="N26">
+        <v>6.737946999085467E-3</v>
+      </c>
+      <c r="N26" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.9459101490553139</v>
-      </c>
-      <c r="O26">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" s="6">
         <f t="shared" si="2"/>
-        <v>128.00000000000031</v>
-      </c>
-      <c r="P26">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P26" s="6">
         <f t="shared" si="13"/>
-        <v>7.8124999999999809E-3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="6">
         <f t="shared" si="14"/>
-        <v>7.2000000000000037</v>
-      </c>
-      <c r="C27">
+        <v>-6</v>
+      </c>
+      <c r="C27" s="6">
         <f t="shared" si="3"/>
-        <v>7.2000000000000037</v>
-      </c>
-      <c r="D27">
+        <v>-6</v>
+      </c>
+      <c r="D27" s="6">
         <f t="shared" si="4"/>
-        <v>-7.2000000000000037</v>
-      </c>
-      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="5"/>
-        <v>23.600000000000012</v>
-      </c>
-      <c r="F27">
+        <v>-16</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="6"/>
-        <v>51.840000000000053</v>
-      </c>
-      <c r="G27">
+        <v>36</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="7"/>
-        <v>373.24800000000056</v>
-      </c>
-      <c r="H27">
+        <v>-216</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="8"/>
-        <v>2687.3856000000055</v>
-      </c>
-      <c r="I27">
+        <v>1296</v>
+      </c>
+      <c r="I27" s="6">
         <f t="shared" si="9"/>
-        <v>19349.17632000005</v>
-      </c>
-      <c r="J27">
+        <v>-7776</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="10"/>
-        <v>139314.06950400042</v>
-      </c>
-      <c r="K27">
+        <v>46656</v>
+      </c>
+      <c r="K27" s="6">
         <f t="shared" si="11"/>
-        <v>1003061.3004288035</v>
-      </c>
-      <c r="L27">
+        <v>-279936</v>
+      </c>
+      <c r="L27" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.6832815729997481</v>
-      </c>
-      <c r="M27">
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="12"/>
-        <v>1339.4307643944228</v>
-      </c>
-      <c r="N27">
+        <v>2.4787521766663585E-3</v>
+      </c>
+      <c r="N27" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>1.9740810260220101</v>
-      </c>
-      <c r="O27">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="6">
         <f t="shared" si="2"/>
-        <v>147.03338943962083</v>
-      </c>
-      <c r="P27">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="P27" s="6">
         <f t="shared" si="13"/>
-        <v>6.8011762757509532E-3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="6">
         <f t="shared" si="14"/>
-        <v>7.4000000000000039</v>
-      </c>
-      <c r="C28">
+        <v>-7</v>
+      </c>
+      <c r="C28" s="6">
         <f t="shared" si="3"/>
-        <v>7.4000000000000039</v>
-      </c>
-      <c r="D28">
+        <v>-7</v>
+      </c>
+      <c r="D28" s="6">
         <f t="shared" si="4"/>
-        <v>-7.4000000000000039</v>
-      </c>
-      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="5"/>
-        <v>24.20000000000001</v>
-      </c>
-      <c r="F28">
+        <v>-19</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="6"/>
-        <v>54.760000000000055</v>
-      </c>
-      <c r="G28">
+        <v>49</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="7"/>
-        <v>405.22400000000061</v>
-      </c>
-      <c r="H28">
+        <v>-343</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="8"/>
-        <v>2998.6576000000059</v>
-      </c>
-      <c r="I28">
+        <v>2401</v>
+      </c>
+      <c r="I28" s="6">
         <f t="shared" si="9"/>
-        <v>22190.066240000055</v>
-      </c>
-      <c r="J28">
+        <v>-16807</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="10"/>
-        <v>164206.49017600049</v>
-      </c>
-      <c r="K28">
+        <v>117649</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="11"/>
-        <v>1215128.0273024042</v>
-      </c>
-      <c r="L28">
+        <v>-823543</v>
+      </c>
+      <c r="L28" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.7202941017470894</v>
-      </c>
-      <c r="M28">
+        <v>#NUM!</v>
+      </c>
+      <c r="M28" s="6">
         <f t="shared" si="12"/>
-        <v>1635.9844299959329</v>
-      </c>
-      <c r="N28">
+        <v>9.1188196555451624E-4</v>
+      </c>
+      <c r="N28" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.0014800002101247</v>
-      </c>
-      <c r="O28">
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="6">
         <f t="shared" si="2"/>
-        <v>168.89701257893088</v>
-      </c>
-      <c r="P28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P28" s="6">
         <f t="shared" si="13"/>
-        <v>5.9207678379312283E-3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="6">
         <f t="shared" si="14"/>
-        <v>7.6000000000000041</v>
-      </c>
-      <c r="C29">
+        <v>-8</v>
+      </c>
+      <c r="C29" s="6">
         <f t="shared" si="3"/>
-        <v>7.6000000000000041</v>
-      </c>
-      <c r="D29">
+        <v>-8</v>
+      </c>
+      <c r="D29" s="6">
         <f t="shared" si="4"/>
-        <v>-7.6000000000000041</v>
-      </c>
-      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" si="5"/>
-        <v>24.800000000000011</v>
-      </c>
-      <c r="F29">
+        <v>-22</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="6"/>
-        <v>57.760000000000062</v>
-      </c>
-      <c r="G29">
+        <v>64</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="7"/>
-        <v>438.97600000000068</v>
-      </c>
-      <c r="H29">
+        <v>-512</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="8"/>
-        <v>3336.2176000000072</v>
-      </c>
-      <c r="I29">
+        <v>4096</v>
+      </c>
+      <c r="I29" s="6">
         <f t="shared" si="9"/>
-        <v>25355.253760000069</v>
-      </c>
-      <c r="J29">
+        <v>-32768</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="10"/>
-        <v>192699.92857600062</v>
-      </c>
-      <c r="K29">
+        <v>262144</v>
+      </c>
+      <c r="K29" s="6">
         <f t="shared" si="11"/>
-        <v>1464519.4571776055</v>
-      </c>
-      <c r="L29">
+        <v>-2097152</v>
+      </c>
+      <c r="L29" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.7568097504180451</v>
-      </c>
-      <c r="M29">
+        <v>#NUM!</v>
+      </c>
+      <c r="M29" s="6">
         <f t="shared" si="12"/>
-        <v>1998.1958951041261</v>
-      </c>
-      <c r="N29">
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="N29" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.028148247292286</v>
-      </c>
-      <c r="O29">
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="6">
         <f t="shared" si="2"/>
-        <v>194.01172051333143</v>
-      </c>
-      <c r="P29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P29" s="6">
         <f t="shared" si="13"/>
-        <v>5.1543277764566058E-3</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="6">
         <f t="shared" si="14"/>
-        <v>7.8000000000000043</v>
-      </c>
-      <c r="C30">
+        <v>-9</v>
+      </c>
+      <c r="C30" s="6">
         <f t="shared" si="3"/>
-        <v>7.8000000000000043</v>
-      </c>
-      <c r="D30">
+        <v>-9</v>
+      </c>
+      <c r="D30" s="6">
         <f t="shared" si="4"/>
-        <v>-7.8000000000000043</v>
-      </c>
-      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="5"/>
-        <v>25.400000000000013</v>
-      </c>
-      <c r="F30">
+        <v>-25</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="6"/>
-        <v>60.840000000000067</v>
-      </c>
-      <c r="G30">
+        <v>81</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="7"/>
-        <v>474.55200000000076</v>
-      </c>
-      <c r="H30">
+        <v>-729</v>
+      </c>
+      <c r="H30" s="6">
         <f t="shared" si="8"/>
-        <v>3701.5056000000081</v>
-      </c>
-      <c r="I30">
+        <v>6561</v>
+      </c>
+      <c r="I30" s="6">
         <f t="shared" si="9"/>
-        <v>28871.74368000008</v>
-      </c>
-      <c r="J30">
+        <v>-59049</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="10"/>
-        <v>225199.60070400074</v>
-      </c>
-      <c r="K30">
+        <v>531441</v>
+      </c>
+      <c r="K30" s="6">
         <f t="shared" si="11"/>
-        <v>1756556.8854912068</v>
-      </c>
-      <c r="L30">
+        <v>-4782969</v>
+      </c>
+      <c r="L30" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.792848008753789</v>
-      </c>
-      <c r="M30">
+        <v>#NUM!</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="12"/>
-        <v>2440.6019776245093</v>
-      </c>
-      <c r="N30">
+        <v>1.2340980408667956E-4</v>
+      </c>
+      <c r="N30" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.0541237336955467</v>
-      </c>
-      <c r="O30">
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="6">
         <f t="shared" si="2"/>
-        <v>222.86094420380832</v>
-      </c>
-      <c r="P30">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P30" s="6">
         <f t="shared" si="13"/>
-        <v>4.4871029492071571E-3</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="6">
         <f t="shared" si="14"/>
-        <v>8.0000000000000036</v>
-      </c>
-      <c r="C31">
+        <v>-10</v>
+      </c>
+      <c r="C31" s="6">
         <f t="shared" si="3"/>
-        <v>8.0000000000000036</v>
-      </c>
-      <c r="D31">
+        <v>-10</v>
+      </c>
+      <c r="D31" s="6">
         <f t="shared" si="4"/>
-        <v>-8.0000000000000036</v>
-      </c>
-      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="5"/>
-        <v>26.000000000000011</v>
-      </c>
-      <c r="F31">
+        <v>-28</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="6"/>
-        <v>64.000000000000057</v>
-      </c>
-      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="7"/>
-        <v>512.00000000000068</v>
-      </c>
-      <c r="H31">
+        <v>-1000</v>
+      </c>
+      <c r="H31" s="6">
         <f t="shared" si="8"/>
-        <v>4096.0000000000073</v>
-      </c>
-      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="6">
         <f t="shared" si="9"/>
-        <v>32768.000000000073</v>
-      </c>
-      <c r="J31">
+        <v>-100000</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="10"/>
-        <v>262144.0000000007</v>
-      </c>
-      <c r="K31">
+        <v>1000000</v>
+      </c>
+      <c r="K31" s="6">
         <f t="shared" si="11"/>
-        <v>2097152.0000000065</v>
-      </c>
-      <c r="L31">
+        <v>-10000000</v>
+      </c>
+      <c r="L31" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.8284271247461907</v>
-      </c>
-      <c r="M31">
+        <v>#NUM!</v>
+      </c>
+      <c r="M31" s="6">
         <f t="shared" si="12"/>
-        <v>2980.9579870417388</v>
-      </c>
-      <c r="N31">
+        <v>4.5399929762484854E-5</v>
+      </c>
+      <c r="N31" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.0794415416798362</v>
-      </c>
-      <c r="O31">
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="6">
         <f t="shared" si="2"/>
-        <v>256.00000000000063</v>
-      </c>
-      <c r="P31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P31" s="6">
         <f t="shared" si="13"/>
-        <v>3.9062499999999905E-3</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="6">
         <f t="shared" si="14"/>
-        <v>8.2000000000000028</v>
-      </c>
-      <c r="C32">
+        <v>-11</v>
+      </c>
+      <c r="C32" s="6">
         <f t="shared" si="3"/>
-        <v>8.2000000000000028</v>
-      </c>
-      <c r="D32">
+        <v>-11</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="4"/>
-        <v>-8.2000000000000028</v>
-      </c>
-      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="5"/>
-        <v>26.600000000000009</v>
-      </c>
-      <c r="F32">
+        <v>-31</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="6"/>
-        <v>67.240000000000052</v>
-      </c>
-      <c r="G32">
+        <v>121</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="7"/>
-        <v>551.36800000000062</v>
-      </c>
-      <c r="H32">
+        <v>-1331</v>
+      </c>
+      <c r="H32" s="6">
         <f t="shared" si="8"/>
-        <v>4521.2176000000072</v>
-      </c>
-      <c r="I32">
+        <v>14641</v>
+      </c>
+      <c r="I32" s="6">
         <f t="shared" si="9"/>
-        <v>37073.984320000069</v>
-      </c>
-      <c r="J32">
+        <v>-161051</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="10"/>
-        <v>304006.6714240007</v>
-      </c>
-      <c r="K32">
+        <v>1771561</v>
+      </c>
+      <c r="K32" s="6">
         <f t="shared" si="11"/>
-        <v>2492854.7056768066</v>
-      </c>
-      <c r="L32">
+        <v>-19487171</v>
+      </c>
+      <c r="L32" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.8635642126552709</v>
-      </c>
-      <c r="M32">
+        <v>#NUM!</v>
+      </c>
+      <c r="M32" s="6">
         <f t="shared" si="12"/>
-        <v>3640.9503073323649</v>
-      </c>
-      <c r="N32">
+        <v>1.6701700790245659E-5</v>
+      </c>
+      <c r="N32" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.1041341542702079</v>
-      </c>
-      <c r="O32">
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="6">
         <f t="shared" si="2"/>
-        <v>294.06677887924144</v>
-      </c>
-      <c r="P32">
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="13"/>
-        <v>3.4005881378754797E-3</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="B33" s="6">
         <f t="shared" si="14"/>
-        <v>8.4000000000000021</v>
-      </c>
-      <c r="C33">
+        <v>-12</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="3"/>
-        <v>8.4000000000000021</v>
-      </c>
-      <c r="D33">
+        <v>-12</v>
+      </c>
+      <c r="D33" s="6">
         <f t="shared" si="4"/>
-        <v>-8.4000000000000021</v>
-      </c>
-      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="5"/>
-        <v>27.200000000000006</v>
-      </c>
-      <c r="F33">
+        <v>-34</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="6"/>
-        <v>70.560000000000031</v>
-      </c>
-      <c r="G33">
+        <v>144</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="7"/>
-        <v>592.70400000000041</v>
-      </c>
-      <c r="H33">
+        <v>-1728</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="8"/>
-        <v>4978.7136000000046</v>
-      </c>
-      <c r="I33">
+        <v>20736</v>
+      </c>
+      <c r="I33" s="6">
         <f t="shared" si="9"/>
-        <v>41821.194240000048</v>
-      </c>
-      <c r="J33">
+        <v>-248832</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="10"/>
-        <v>351298.03161600046</v>
-      </c>
-      <c r="K33">
+        <v>2985984</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="11"/>
-        <v>2950903.4655744047</v>
-      </c>
-      <c r="L33">
+        <v>-35831808</v>
+      </c>
+      <c r="L33" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.8982753492378879</v>
-      </c>
-      <c r="M33">
+        <v>#NUM!</v>
+      </c>
+      <c r="M33" s="6">
         <f t="shared" si="12"/>
-        <v>4447.0667476998651</v>
-      </c>
-      <c r="N33">
+        <v>6.1442123533282098E-6</v>
+      </c>
+      <c r="N33" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.1282317058492684</v>
-      </c>
-      <c r="O33">
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="6">
         <f t="shared" si="2"/>
-        <v>337.79402515786148</v>
-      </c>
-      <c r="P33">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="13"/>
-        <v>2.9603839189656163E-3</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" s="6">
         <f t="shared" si="14"/>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="C34">
+        <v>-13</v>
+      </c>
+      <c r="C34" s="6">
         <f t="shared" si="3"/>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="D34">
+        <v>-13</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="4"/>
-        <v>-8.6000000000000014</v>
-      </c>
-      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="5"/>
-        <v>27.800000000000004</v>
-      </c>
-      <c r="F34">
+        <v>-37</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="6"/>
-        <v>73.960000000000022</v>
-      </c>
-      <c r="G34">
+        <v>169</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="7"/>
-        <v>636.05600000000027</v>
-      </c>
-      <c r="H34">
+        <v>-2197</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="8"/>
-        <v>5470.0816000000032</v>
-      </c>
-      <c r="I34">
+        <v>28561</v>
+      </c>
+      <c r="I34" s="6">
         <f t="shared" si="9"/>
-        <v>47042.701760000033</v>
-      </c>
-      <c r="J34">
+        <v>-371293</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="10"/>
-        <v>404567.23513600038</v>
-      </c>
-      <c r="K34">
+        <v>4826809</v>
+      </c>
+      <c r="K34" s="6">
         <f t="shared" si="11"/>
-        <v>3479278.2221696037</v>
-      </c>
-      <c r="L34">
+        <v>-62748517</v>
+      </c>
+      <c r="L34" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.9325756597230361</v>
-      </c>
-      <c r="M34">
+        <v>#NUM!</v>
+      </c>
+      <c r="M34" s="6">
         <f t="shared" si="12"/>
-        <v>5431.6595913629881</v>
-      </c>
-      <c r="N34">
+        <v>2.2603294069810542E-6</v>
+      </c>
+      <c r="N34" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.1517622032594623</v>
-      </c>
-      <c r="O34">
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="6">
         <f t="shared" si="2"/>
-        <v>388.02344102666223</v>
-      </c>
-      <c r="P34">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="P34" s="6">
         <f t="shared" si="13"/>
-        <v>2.5771638882283072E-3</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="6">
         <f t="shared" si="14"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C35">
+        <v>-14</v>
+      </c>
+      <c r="C35" s="6">
         <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D35">
+        <v>-14</v>
+      </c>
+      <c r="D35" s="6">
         <f t="shared" si="4"/>
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="E35" s="6">
         <f t="shared" si="5"/>
-        <v>28.400000000000002</v>
-      </c>
-      <c r="F35">
+        <v>-40</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="6"/>
-        <v>77.440000000000012</v>
-      </c>
-      <c r="G35">
+        <v>196</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="7"/>
-        <v>681.47200000000021</v>
-      </c>
-      <c r="H35">
+        <v>-2744</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="8"/>
-        <v>5996.9536000000016</v>
-      </c>
-      <c r="I35">
+        <v>38416</v>
+      </c>
+      <c r="I35" s="6">
         <f t="shared" si="9"/>
-        <v>52773.191680000018</v>
-      </c>
-      <c r="J35">
+        <v>-537824</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="10"/>
-        <v>464404.08678400022</v>
-      </c>
-      <c r="K35">
+        <v>7529536</v>
+      </c>
+      <c r="K35" s="6">
         <f t="shared" si="11"/>
-        <v>4086755.9636992025</v>
-      </c>
-      <c r="L35">
+        <v>-105413504</v>
+      </c>
+      <c r="L35" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>2.9664793948382653</v>
-      </c>
-      <c r="M35">
+        <v>#NUM!</v>
+      </c>
+      <c r="M35" s="6">
         <f t="shared" si="12"/>
-        <v>6634.2440062778896</v>
-      </c>
-      <c r="N35">
+        <v>8.3152871910356788E-7</v>
+      </c>
+      <c r="N35" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.174751721484161</v>
-      </c>
-      <c r="O35">
+        <v>#NUM!</v>
+      </c>
+      <c r="O35" s="6">
         <f t="shared" si="2"/>
-        <v>445.72188840761549</v>
-      </c>
-      <c r="P35">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="P35" s="6">
         <f t="shared" si="13"/>
-        <v>2.2435514746035842E-3</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="6">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="C36">
+        <v>-15</v>
+      </c>
+      <c r="C36" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D36">
+        <v>-15</v>
+      </c>
+      <c r="D36" s="6">
         <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="F36">
+        <v>-43</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="G36">
+        <v>225</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="7"/>
-        <v>729</v>
-      </c>
-      <c r="H36">
+        <v>-3375</v>
+      </c>
+      <c r="H36" s="6">
         <f t="shared" si="8"/>
-        <v>6561</v>
-      </c>
-      <c r="I36">
+        <v>50625</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="9"/>
-        <v>59049</v>
-      </c>
-      <c r="J36">
+        <v>-759375</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="10"/>
-        <v>531441</v>
-      </c>
-      <c r="K36">
+        <v>11390625</v>
+      </c>
+      <c r="K36" s="6">
         <f t="shared" si="11"/>
-        <v>4782969</v>
-      </c>
-      <c r="L36">
+        <v>-170859375</v>
+      </c>
+      <c r="L36" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M36">
+        <v>#NUM!</v>
+      </c>
+      <c r="M36" s="6">
         <f t="shared" si="12"/>
-        <v>8103.0839275753842</v>
-      </c>
-      <c r="N36">
+        <v>3.0590232050182579E-7</v>
+      </c>
+      <c r="N36" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>2.1972245773362196</v>
-      </c>
-      <c r="O36">
+        <v>#NUM!</v>
+      </c>
+      <c r="O36" s="6">
         <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
-      <c r="P36">
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="P36" s="6">
         <f t="shared" si="13"/>
-        <v>1.953125E-3</v>
+        <v>32768</v>
       </c>
     </row>
   </sheetData>

--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -1344,7 +1344,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1355,11 +1355,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1833,7 +1833,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1844,11 +1844,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2247,10 +2247,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2322,7 +2322,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2333,11 +2333,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3310,7 +3310,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3321,11 +3321,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3799,7 +3799,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3810,11 +3810,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4043,11 +4043,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4265,7 +4265,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4276,11 +4276,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5243,7 +5243,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5254,11 +5254,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5657,10 +5657,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5732,7 +5732,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5743,11 +5743,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6710,7 +6710,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6721,11 +6721,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7199,7 +7199,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7210,11 +7210,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7613,10 +7613,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7688,7 +7688,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7699,11 +7699,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -8176,12 +8176,9 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -8216,13 +8213,10 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8256,42 +8250,8 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -8336,12 +8296,9 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -8376,13 +8333,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8456,12 +8410,9 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -8496,42 +8447,8 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -8576,12 +8493,9 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -8616,13 +8530,10 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8656,42 +8567,8 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16569,15 +16446,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17315,7 +17192,7 @@
   <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
